--- a/biology/Botanique/Scleria_afroreflexa/Scleria_afroreflexa.xlsx
+++ b/biology/Botanique/Scleria_afroreflexa/Scleria_afroreflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scleria afroreflexa Lye est une espèce de plantes de la famille des Cyperaceae décrite par Kaare Armstein Lye. Elle fut collectée pour la première fois en 1999. Plante menacée par les incendies volontaires des prairies.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbe annuelle de 10 à 50 cm. de haut
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante endémique du Cameroun pouvant se trouver dans les prairies de montagne jusqu'à 1 500 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante endémique du Cameroun pouvant se trouver dans les prairies de montagne jusqu'à 1 500 m d'altitude.
 </t>
         </is>
       </c>
